--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3054.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3054.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.2201098161342559</v>
+        <v>1.511861205101013</v>
       </c>
       <c r="B1">
-        <v>0.430849319866101</v>
+        <v>4.038992881774902</v>
       </c>
       <c r="C1">
-        <v>2.784156570175826</v>
+        <v>5.909438133239746</v>
       </c>
       <c r="D1">
-        <v>4.428783166765773</v>
+        <v>1.499313235282898</v>
       </c>
       <c r="E1">
-        <v>3.719094066612468</v>
+        <v>0.8364875912666321</v>
       </c>
     </row>
   </sheetData>
